--- a/Code/Results/Cases/Case_5_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032721262948395</v>
+        <v>1.072892327087843</v>
       </c>
       <c r="D2">
-        <v>1.047915914896975</v>
+        <v>1.07187021511377</v>
       </c>
       <c r="E2">
-        <v>1.043994338609015</v>
+        <v>1.076205767245857</v>
       </c>
       <c r="F2">
-        <v>1.054882844779111</v>
+        <v>1.084854449401716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062748282116229</v>
+        <v>1.052804418647453</v>
       </c>
       <c r="J2">
-        <v>1.053965469790386</v>
+        <v>1.077809583936984</v>
       </c>
       <c r="K2">
-        <v>1.058745751513145</v>
+        <v>1.074566238892569</v>
       </c>
       <c r="L2">
-        <v>1.054872987699086</v>
+        <v>1.078890311757843</v>
       </c>
       <c r="M2">
-        <v>1.065627075663307</v>
+        <v>1.087516390636249</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.040208522621619</v>
+        <v>1.074397094034832</v>
       </c>
       <c r="D3">
-        <v>1.05365153467942</v>
+        <v>1.073022815664558</v>
       </c>
       <c r="E3">
-        <v>1.050321750557108</v>
+        <v>1.077513318269283</v>
       </c>
       <c r="F3">
-        <v>1.061234110389421</v>
+        <v>1.086160823543457</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065336630537741</v>
+        <v>1.053211707738529</v>
       </c>
       <c r="J3">
-        <v>1.059660006113862</v>
+        <v>1.078970231807105</v>
       </c>
       <c r="K3">
-        <v>1.063641045072473</v>
+        <v>1.075534646404976</v>
       </c>
       <c r="L3">
-        <v>1.060348830889812</v>
+        <v>1.080014124295421</v>
       </c>
       <c r="M3">
-        <v>1.071139148219709</v>
+        <v>1.088640674898526</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04491484793233</v>
+        <v>1.075369739712431</v>
       </c>
       <c r="D4">
-        <v>1.057258373656431</v>
+        <v>1.073767481534872</v>
       </c>
       <c r="E4">
-        <v>1.054303867712528</v>
+        <v>1.078358574765836</v>
       </c>
       <c r="F4">
-        <v>1.065231031231743</v>
+        <v>1.087005272722473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066949178503801</v>
+        <v>1.053473160082334</v>
       </c>
       <c r="J4">
-        <v>1.063235457543754</v>
+        <v>1.079719760781944</v>
       </c>
       <c r="K4">
-        <v>1.066711571992639</v>
+        <v>1.076159544114202</v>
       </c>
       <c r="L4">
-        <v>1.06378825973549</v>
+        <v>1.080739936370977</v>
       </c>
       <c r="M4">
-        <v>1.07460110802777</v>
+        <v>1.089366743467912</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046862044480797</v>
+        <v>1.075778397506665</v>
       </c>
       <c r="D5">
-        <v>1.058750938649841</v>
+        <v>1.074080269215919</v>
       </c>
       <c r="E5">
-        <v>1.0559525049255</v>
+        <v>1.07871372982578</v>
       </c>
       <c r="F5">
-        <v>1.066885737364256</v>
+        <v>1.087360077275099</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067612828349365</v>
+        <v>1.053582575919267</v>
       </c>
       <c r="J5">
-        <v>1.064713740682557</v>
+        <v>1.080034511184373</v>
       </c>
       <c r="K5">
-        <v>1.067980324166147</v>
+        <v>1.076421841486718</v>
       </c>
       <c r="L5">
-        <v>1.065210601153209</v>
+        <v>1.081044744174708</v>
       </c>
       <c r="M5">
-        <v>1.076032703904282</v>
+        <v>1.089671647303483</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047187199019957</v>
+        <v>1.075846998914589</v>
       </c>
       <c r="D6">
-        <v>1.059000189112086</v>
+        <v>1.07413277193459</v>
       </c>
       <c r="E6">
-        <v>1.056227864999353</v>
+        <v>1.078773350872027</v>
       </c>
       <c r="F6">
-        <v>1.067162107281698</v>
+        <v>1.087419638813767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067723439394765</v>
+        <v>1.053600918127456</v>
       </c>
       <c r="J6">
-        <v>1.064960531177172</v>
+        <v>1.080087338678587</v>
       </c>
       <c r="K6">
-        <v>1.068192088863055</v>
+        <v>1.076465858457818</v>
       </c>
       <c r="L6">
-        <v>1.065448069668083</v>
+        <v>1.081095903896159</v>
       </c>
       <c r="M6">
-        <v>1.076271713548571</v>
+        <v>1.089722822453484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044940987351682</v>
+        <v>1.07537520116269</v>
       </c>
       <c r="D7">
-        <v>1.05727840910452</v>
+        <v>1.0737716620746</v>
       </c>
       <c r="E7">
-        <v>1.05432599509153</v>
+        <v>1.07836332110892</v>
       </c>
       <c r="F7">
-        <v>1.065253240315387</v>
+        <v>1.087010014425908</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066958101461287</v>
+        <v>1.053474624059493</v>
       </c>
       <c r="J7">
-        <v>1.063255306346973</v>
+        <v>1.079723967867993</v>
       </c>
       <c r="K7">
-        <v>1.066728610509978</v>
+        <v>1.076163050549441</v>
       </c>
       <c r="L7">
-        <v>1.063807356251554</v>
+        <v>1.080744010493901</v>
       </c>
       <c r="M7">
-        <v>1.074620329056138</v>
+        <v>1.08937081892054</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035281410684971</v>
+        <v>1.073401089103901</v>
       </c>
       <c r="D8">
-        <v>1.049876723987106</v>
+        <v>1.072259981083573</v>
       </c>
       <c r="E8">
-        <v>1.046156816819265</v>
+        <v>1.076647832115718</v>
       </c>
       <c r="F8">
-        <v>1.057053512934058</v>
+        <v>1.085296125933076</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063636329193723</v>
+        <v>1.0529424979584</v>
       </c>
       <c r="J8">
-        <v>1.055913429436305</v>
+        <v>1.078202141157856</v>
       </c>
       <c r="K8">
-        <v>1.060420949270827</v>
+        <v>1.074893876536371</v>
       </c>
       <c r="L8">
-        <v>1.056745858034859</v>
+        <v>1.079270395705259</v>
       </c>
       <c r="M8">
-        <v>1.067512379113994</v>
+        <v>1.087896644020756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017110517587474</v>
+        <v>1.069914208633013</v>
       </c>
       <c r="D9">
-        <v>1.035971115113578</v>
+        <v>1.069587267643891</v>
       </c>
       <c r="E9">
-        <v>1.030833395797929</v>
+        <v>1.073618457584906</v>
       </c>
       <c r="F9">
-        <v>1.04167160820204</v>
+        <v>1.082269227434137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057273884914199</v>
+        <v>1.051988726531689</v>
       </c>
       <c r="J9">
-        <v>1.042073198273384</v>
+        <v>1.075508886204516</v>
       </c>
       <c r="K9">
-        <v>1.04850635109781</v>
+        <v>1.072644036389283</v>
       </c>
       <c r="L9">
-        <v>1.043445273915658</v>
+        <v>1.076663012365922</v>
       </c>
       <c r="M9">
-        <v>1.054122929701322</v>
+        <v>1.085287906042565</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004083661175071</v>
+        <v>1.067583680642252</v>
       </c>
       <c r="D10">
-        <v>1.026022603023177</v>
+        <v>1.067799196899214</v>
       </c>
       <c r="E10">
-        <v>1.01988504410773</v>
+        <v>1.071594231933962</v>
       </c>
       <c r="F10">
-        <v>1.030681449812191</v>
+        <v>1.080246429856688</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052639876132092</v>
+        <v>1.051341938204248</v>
       </c>
       <c r="J10">
-        <v>1.03213618927635</v>
+        <v>1.073705290956814</v>
       </c>
       <c r="K10">
-        <v>1.039937386669528</v>
+        <v>1.071134899762848</v>
       </c>
       <c r="L10">
-        <v>1.033904315735136</v>
+        <v>1.074917297792348</v>
       </c>
       <c r="M10">
-        <v>1.044517990096827</v>
+        <v>1.083541048881349</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9981897654192348</v>
+        <v>1.066573037837228</v>
       </c>
       <c r="D11">
-        <v>1.02152848571622</v>
+        <v>1.067023400473676</v>
       </c>
       <c r="E11">
-        <v>1.014942238268437</v>
+        <v>1.070716552022095</v>
       </c>
       <c r="F11">
-        <v>1.025719963304242</v>
+        <v>1.079369317412503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05052719261542</v>
+        <v>1.051059250038795</v>
       </c>
       <c r="J11">
-        <v>1.027638046657708</v>
+        <v>1.072922329509029</v>
       </c>
       <c r="K11">
-        <v>1.036055514406437</v>
+        <v>1.070479180912981</v>
       </c>
       <c r="L11">
-        <v>1.029587762082165</v>
+        <v>1.074159553250237</v>
       </c>
       <c r="M11">
-        <v>1.040172609357702</v>
+        <v>1.082782754423863</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9959588724098308</v>
+        <v>1.066197405645003</v>
       </c>
       <c r="D12">
-        <v>1.019828678511987</v>
+        <v>1.066734997278332</v>
       </c>
       <c r="E12">
-        <v>1.013073126928964</v>
+        <v>1.070390359985739</v>
       </c>
       <c r="F12">
-        <v>1.023843835980018</v>
+        <v>1.079043328669163</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04972522503527</v>
+        <v>1.050953850385978</v>
       </c>
       <c r="J12">
-        <v>1.025935250205564</v>
+        <v>1.072631197638986</v>
       </c>
       <c r="K12">
-        <v>1.034585603126974</v>
+        <v>1.07023527457366</v>
       </c>
       <c r="L12">
-        <v>1.027954080354917</v>
+        <v>1.07387781155888</v>
       </c>
       <c r="M12">
-        <v>1.038528052085153</v>
+        <v>1.082500800316375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9964393536574919</v>
+        <v>1.066277990760313</v>
       </c>
       <c r="D13">
-        <v>1.020194716277945</v>
+        <v>1.066796871586974</v>
       </c>
       <c r="E13">
-        <v>1.013475605335732</v>
+        <v>1.070460337643628</v>
       </c>
       <c r="F13">
-        <v>1.024247822652986</v>
+        <v>1.079113263056424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049898051472985</v>
+        <v>1.050976476958252</v>
       </c>
       <c r="J13">
-        <v>1.026301999282689</v>
+        <v>1.072693660313447</v>
       </c>
       <c r="K13">
-        <v>1.034902210940273</v>
+        <v>1.070287608916302</v>
       </c>
       <c r="L13">
-        <v>1.028305926174873</v>
+        <v>1.07393825893949</v>
       </c>
       <c r="M13">
-        <v>1.038882238322936</v>
+        <v>1.082561293627749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9980062309873027</v>
+        <v>1.066541992791012</v>
       </c>
       <c r="D14">
-        <v>1.02138861670226</v>
+        <v>1.066999565856873</v>
       </c>
       <c r="E14">
-        <v>1.014788430119792</v>
+        <v>1.070689592646249</v>
       </c>
       <c r="F14">
-        <v>1.025565576722742</v>
+        <v>1.079342374992804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050461261034304</v>
+        <v>1.051050545776585</v>
       </c>
       <c r="J14">
-        <v>1.027497961921565</v>
+        <v>1.07289827071562</v>
       </c>
       <c r="K14">
-        <v>1.035934596539806</v>
+        <v>1.070459026566696</v>
       </c>
       <c r="L14">
-        <v>1.029453355509724</v>
+        <v>1.074136270170666</v>
       </c>
       <c r="M14">
-        <v>1.040037307226866</v>
+        <v>1.08275945395145</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9989660028126754</v>
+        <v>1.066704621854236</v>
       </c>
       <c r="D15">
-        <v>1.02212009768982</v>
+        <v>1.067124420817523</v>
       </c>
       <c r="E15">
-        <v>1.015592825510055</v>
+        <v>1.070830819843289</v>
       </c>
       <c r="F15">
-        <v>1.026372999309262</v>
+        <v>1.07948351305423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050805949858248</v>
+        <v>1.051096129384712</v>
       </c>
       <c r="J15">
-        <v>1.028230510949797</v>
+        <v>1.073024297333009</v>
       </c>
       <c r="K15">
-        <v>1.036566899432905</v>
+        <v>1.070564597024593</v>
       </c>
       <c r="L15">
-        <v>1.030156226888423</v>
+        <v>1.074258233944569</v>
       </c>
       <c r="M15">
-        <v>1.040744863386135</v>
+        <v>1.082881508509844</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004469188476772</v>
+        <v>1.067650721225467</v>
       </c>
       <c r="D16">
-        <v>1.026316730680911</v>
+        <v>1.067850650871159</v>
       </c>
       <c r="E16">
-        <v>1.020208595229757</v>
+        <v>1.071652455367563</v>
       </c>
       <c r="F16">
-        <v>1.031006229312705</v>
+        <v>1.080304614570398</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05277774646687</v>
+        <v>1.051360643788427</v>
       </c>
       <c r="J16">
-        <v>1.032430382768913</v>
+        <v>1.073757211055134</v>
       </c>
       <c r="K16">
-        <v>1.040191215527352</v>
+        <v>1.071178369799199</v>
       </c>
       <c r="L16">
-        <v>1.034186682637899</v>
+        <v>1.074967547604568</v>
       </c>
       <c r="M16">
-        <v>1.044802246556165</v>
+        <v>1.083591334038891</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007851006814595</v>
+        <v>1.068243774941521</v>
       </c>
       <c r="D17">
-        <v>1.028897610725735</v>
+        <v>1.068305777306999</v>
       </c>
       <c r="E17">
-        <v>1.023047988454983</v>
+        <v>1.072167526444862</v>
       </c>
       <c r="F17">
-        <v>1.033856426393664</v>
+        <v>1.080819337162911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053985335260044</v>
+        <v>1.051525862349306</v>
       </c>
       <c r="J17">
-        <v>1.035010790092191</v>
+        <v>1.074216410905511</v>
       </c>
       <c r="K17">
-        <v>1.042417246331169</v>
+        <v>1.071562766806245</v>
       </c>
       <c r="L17">
-        <v>1.036663620968073</v>
+        <v>1.075411985274198</v>
       </c>
       <c r="M17">
-        <v>1.047295775515145</v>
+        <v>1.084036078116317</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009799402150936</v>
+        <v>1.068589548090895</v>
       </c>
       <c r="D18">
-        <v>1.030385198834858</v>
+        <v>1.068571095644893</v>
       </c>
       <c r="E18">
-        <v>1.024684863482954</v>
+        <v>1.072467845537891</v>
       </c>
       <c r="F18">
-        <v>1.035499546599528</v>
+        <v>1.081119448069274</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054679555978471</v>
+        <v>1.051621978471062</v>
       </c>
       <c r="J18">
-        <v>1.036497244068539</v>
+        <v>1.074484062522349</v>
       </c>
       <c r="K18">
-        <v>1.043699275824403</v>
+        <v>1.071786762041964</v>
       </c>
       <c r="L18">
-        <v>1.038090686416542</v>
+        <v>1.075671041215486</v>
       </c>
       <c r="M18">
-        <v>1.048732409585382</v>
+        <v>1.084295307448207</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010459758275235</v>
+        <v>1.068707423430479</v>
       </c>
       <c r="D19">
-        <v>1.030889480324252</v>
+        <v>1.068661537182834</v>
       </c>
       <c r="E19">
-        <v>1.025239801398497</v>
+        <v>1.072570227570577</v>
       </c>
       <c r="F19">
-        <v>1.036056604107647</v>
+        <v>1.081221758276154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054914582747563</v>
+        <v>1.051654708731043</v>
       </c>
       <c r="J19">
-        <v>1.037000997195032</v>
+        <v>1.07457529243209</v>
       </c>
       <c r="K19">
-        <v>1.044133700882724</v>
+        <v>1.07186310195772</v>
       </c>
       <c r="L19">
-        <v>1.038574348796775</v>
+        <v>1.075759342731633</v>
       </c>
       <c r="M19">
-        <v>1.049219316216761</v>
+        <v>1.084383667177568</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007490693463921</v>
+        <v>1.068180160949973</v>
       </c>
       <c r="D20">
-        <v>1.028622564448016</v>
+        <v>1.068256962017677</v>
       </c>
       <c r="E20">
-        <v>1.022745363126919</v>
+        <v>1.072112275939056</v>
       </c>
       <c r="F20">
-        <v>1.033552647697277</v>
+        <v>1.080764124554131</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053856830530039</v>
+        <v>1.051508162154744</v>
       </c>
       <c r="J20">
-        <v>1.034735884273718</v>
+        <v>1.074167162996764</v>
       </c>
       <c r="K20">
-        <v>1.042180123582943</v>
+        <v>1.071521547128487</v>
       </c>
       <c r="L20">
-        <v>1.036399715762868</v>
+        <v>1.075364319668844</v>
       </c>
       <c r="M20">
-        <v>1.04703010150248</v>
+        <v>1.083988380186829</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9975460053311953</v>
+        <v>1.066464257307851</v>
       </c>
       <c r="D21">
-        <v>1.021037906135772</v>
+        <v>1.066939884052796</v>
       </c>
       <c r="E21">
-        <v>1.014402774592441</v>
+        <v>1.070622087850739</v>
       </c>
       <c r="F21">
-        <v>1.025178471685458</v>
+        <v>1.079274912532233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050295896369728</v>
+        <v>1.051028745325196</v>
       </c>
       <c r="J21">
-        <v>1.027146686567289</v>
+        <v>1.072838026521174</v>
       </c>
       <c r="K21">
-        <v>1.035631377476489</v>
+        <v>1.07040855785213</v>
       </c>
       <c r="L21">
-        <v>1.029116324768408</v>
+        <v>1.074077968616285</v>
       </c>
       <c r="M21">
-        <v>1.039698031447268</v>
+        <v>1.082701108717021</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9910503407918975</v>
+        <v>1.065384040209875</v>
       </c>
       <c r="D22">
-        <v>1.016091236082225</v>
+        <v>1.066110406174395</v>
       </c>
       <c r="E22">
-        <v>1.008964118557291</v>
+        <v>1.069684087848483</v>
       </c>
       <c r="F22">
-        <v>1.019719515335496</v>
+        <v>1.07833748296549</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047956592708409</v>
+        <v>1.050725020671367</v>
       </c>
       <c r="J22">
-        <v>1.022188431916859</v>
+        <v>1.072000577428419</v>
       </c>
       <c r="K22">
-        <v>1.031350523093885</v>
+        <v>1.069706789526602</v>
       </c>
       <c r="L22">
-        <v>1.024360061851717</v>
+        <v>1.073267556530596</v>
       </c>
       <c r="M22">
-        <v>1.034910191726313</v>
+        <v>1.081890070823553</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9945181824316133</v>
+        <v>1.065956815287211</v>
       </c>
       <c r="D23">
-        <v>1.018731340685014</v>
+        <v>1.066550260451004</v>
       </c>
       <c r="E23">
-        <v>1.011866599825272</v>
+        <v>1.070181441791567</v>
       </c>
       <c r="F23">
-        <v>1.022632796102829</v>
+        <v>1.07883453855788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049206689638807</v>
+        <v>1.050886249312861</v>
       </c>
       <c r="J23">
-        <v>1.024835558183938</v>
+        <v>1.072444694568655</v>
       </c>
       <c r="K23">
-        <v>1.033636202818138</v>
+        <v>1.070079000196046</v>
       </c>
       <c r="L23">
-        <v>1.026899132441385</v>
+        <v>1.073697327828437</v>
       </c>
       <c r="M23">
-        <v>1.037466093289471</v>
+        <v>1.082320178294045</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007653577958978</v>
+        <v>1.068208905823033</v>
       </c>
       <c r="D24">
-        <v>1.028746900830565</v>
+        <v>1.06827902000708</v>
       </c>
       <c r="E24">
-        <v>1.022882165908591</v>
+        <v>1.072137241614375</v>
       </c>
       <c r="F24">
-        <v>1.033689971811868</v>
+        <v>1.080789073120635</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053914927543592</v>
+        <v>1.051516160892884</v>
       </c>
       <c r="J24">
-        <v>1.034860159830929</v>
+        <v>1.074189416600089</v>
       </c>
       <c r="K24">
-        <v>1.042287319587853</v>
+        <v>1.071540173197483</v>
       </c>
       <c r="L24">
-        <v>1.036519017650892</v>
+        <v>1.075385858251474</v>
       </c>
       <c r="M24">
-        <v>1.04715020297355</v>
+        <v>1.084009933391832</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021957818422119</v>
+        <v>1.070816668567941</v>
       </c>
       <c r="D25">
-        <v>1.039677741235568</v>
+        <v>1.070279313222121</v>
       </c>
       <c r="E25">
-        <v>1.034915334788474</v>
+        <v>1.07440241994096</v>
       </c>
       <c r="F25">
-        <v>1.04576918944127</v>
+        <v>1.083052589558078</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058983881625361</v>
+        <v>1.052237218986952</v>
       </c>
       <c r="J25">
-        <v>1.045768155934489</v>
+        <v>1.076206561943778</v>
       </c>
       <c r="K25">
-        <v>1.051689824280615</v>
+        <v>1.073227285605251</v>
       </c>
       <c r="L25">
-        <v>1.046994778104026</v>
+        <v>1.07733837793349</v>
       </c>
       <c r="M25">
-        <v>1.057696241955096</v>
+        <v>1.085963664588903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_99/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072892327087843</v>
+        <v>1.032721262948396</v>
       </c>
       <c r="D2">
-        <v>1.07187021511377</v>
+        <v>1.047915914896976</v>
       </c>
       <c r="E2">
-        <v>1.076205767245857</v>
+        <v>1.043994338609016</v>
       </c>
       <c r="F2">
-        <v>1.084854449401716</v>
+        <v>1.054882844779112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052804418647453</v>
+        <v>1.06274828211623</v>
       </c>
       <c r="J2">
-        <v>1.077809583936984</v>
+        <v>1.053965469790387</v>
       </c>
       <c r="K2">
-        <v>1.074566238892569</v>
+        <v>1.058745751513146</v>
       </c>
       <c r="L2">
-        <v>1.078890311757843</v>
+        <v>1.054872987699087</v>
       </c>
       <c r="M2">
-        <v>1.087516390636249</v>
+        <v>1.065627075663307</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.074397094034832</v>
+        <v>1.040208522621615</v>
       </c>
       <c r="D3">
-        <v>1.073022815664558</v>
+        <v>1.053651534679417</v>
       </c>
       <c r="E3">
-        <v>1.077513318269283</v>
+        <v>1.050321750557104</v>
       </c>
       <c r="F3">
-        <v>1.086160823543457</v>
+        <v>1.061234110389418</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053211707738529</v>
+        <v>1.06533663053774</v>
       </c>
       <c r="J3">
-        <v>1.078970231807105</v>
+        <v>1.059660006113858</v>
       </c>
       <c r="K3">
-        <v>1.075534646404976</v>
+        <v>1.06364104507247</v>
       </c>
       <c r="L3">
-        <v>1.080014124295421</v>
+        <v>1.060348830889809</v>
       </c>
       <c r="M3">
-        <v>1.088640674898526</v>
+        <v>1.071139148219705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075369739712431</v>
+        <v>1.044914847932332</v>
       </c>
       <c r="D4">
-        <v>1.073767481534872</v>
+        <v>1.057258373656433</v>
       </c>
       <c r="E4">
-        <v>1.078358574765836</v>
+        <v>1.054303867712529</v>
       </c>
       <c r="F4">
-        <v>1.087005272722473</v>
+        <v>1.065231031231745</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053473160082334</v>
+        <v>1.066949178503803</v>
       </c>
       <c r="J4">
-        <v>1.079719760781944</v>
+        <v>1.063235457543755</v>
       </c>
       <c r="K4">
-        <v>1.076159544114202</v>
+        <v>1.066711571992641</v>
       </c>
       <c r="L4">
-        <v>1.080739936370977</v>
+        <v>1.063788259735491</v>
       </c>
       <c r="M4">
-        <v>1.089366743467912</v>
+        <v>1.074601108027771</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075778397506665</v>
+        <v>1.046862044480798</v>
       </c>
       <c r="D5">
-        <v>1.074080269215919</v>
+        <v>1.058750938649841</v>
       </c>
       <c r="E5">
-        <v>1.07871372982578</v>
+        <v>1.055952504925501</v>
       </c>
       <c r="F5">
-        <v>1.087360077275099</v>
+        <v>1.066885737364256</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053582575919267</v>
+        <v>1.067612828349366</v>
       </c>
       <c r="J5">
-        <v>1.080034511184373</v>
+        <v>1.064713740682558</v>
       </c>
       <c r="K5">
-        <v>1.076421841486718</v>
+        <v>1.067980324166148</v>
       </c>
       <c r="L5">
-        <v>1.081044744174708</v>
+        <v>1.065210601153209</v>
       </c>
       <c r="M5">
-        <v>1.089671647303483</v>
+        <v>1.076032703904282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075846998914589</v>
+        <v>1.047187199019959</v>
       </c>
       <c r="D6">
-        <v>1.07413277193459</v>
+        <v>1.059000189112087</v>
       </c>
       <c r="E6">
-        <v>1.078773350872027</v>
+        <v>1.056227864999355</v>
       </c>
       <c r="F6">
-        <v>1.087419638813767</v>
+        <v>1.067162107281701</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053600918127456</v>
+        <v>1.067723439394766</v>
       </c>
       <c r="J6">
-        <v>1.080087338678587</v>
+        <v>1.064960531177174</v>
       </c>
       <c r="K6">
-        <v>1.076465858457818</v>
+        <v>1.068192088863056</v>
       </c>
       <c r="L6">
-        <v>1.081095903896159</v>
+        <v>1.065448069668085</v>
       </c>
       <c r="M6">
-        <v>1.089722822453484</v>
+        <v>1.076271713548574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07537520116269</v>
+        <v>1.044940987351681</v>
       </c>
       <c r="D7">
-        <v>1.0737716620746</v>
+        <v>1.057278409104518</v>
       </c>
       <c r="E7">
-        <v>1.07836332110892</v>
+        <v>1.054325995091528</v>
       </c>
       <c r="F7">
-        <v>1.087010014425908</v>
+        <v>1.065253240315385</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053474624059493</v>
+        <v>1.066958101461286</v>
       </c>
       <c r="J7">
-        <v>1.079723967867993</v>
+        <v>1.063255306346971</v>
       </c>
       <c r="K7">
-        <v>1.076163050549441</v>
+        <v>1.066728610509977</v>
       </c>
       <c r="L7">
-        <v>1.080744010493901</v>
+        <v>1.063807356251553</v>
       </c>
       <c r="M7">
-        <v>1.08937081892054</v>
+        <v>1.074620329056136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073401089103901</v>
+        <v>1.035281410684971</v>
       </c>
       <c r="D8">
-        <v>1.072259981083573</v>
+        <v>1.049876723987106</v>
       </c>
       <c r="E8">
-        <v>1.076647832115718</v>
+        <v>1.046156816819265</v>
       </c>
       <c r="F8">
-        <v>1.085296125933076</v>
+        <v>1.057053512934058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0529424979584</v>
+        <v>1.063636329193723</v>
       </c>
       <c r="J8">
-        <v>1.078202141157856</v>
+        <v>1.055913429436305</v>
       </c>
       <c r="K8">
-        <v>1.074893876536371</v>
+        <v>1.060420949270827</v>
       </c>
       <c r="L8">
-        <v>1.079270395705259</v>
+        <v>1.056745858034858</v>
       </c>
       <c r="M8">
-        <v>1.087896644020756</v>
+        <v>1.067512379113994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069914208633013</v>
+        <v>1.017110517587473</v>
       </c>
       <c r="D9">
-        <v>1.069587267643891</v>
+        <v>1.035971115113577</v>
       </c>
       <c r="E9">
-        <v>1.073618457584906</v>
+        <v>1.030833395797928</v>
       </c>
       <c r="F9">
-        <v>1.082269227434137</v>
+        <v>1.041671608202039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051988726531689</v>
+        <v>1.057273884914199</v>
       </c>
       <c r="J9">
-        <v>1.075508886204516</v>
+        <v>1.042073198273383</v>
       </c>
       <c r="K9">
-        <v>1.072644036389283</v>
+        <v>1.048506351097809</v>
       </c>
       <c r="L9">
-        <v>1.076663012365922</v>
+        <v>1.043445273915657</v>
       </c>
       <c r="M9">
-        <v>1.085287906042565</v>
+        <v>1.054122929701321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067583680642252</v>
+        <v>1.004083661175069</v>
       </c>
       <c r="D10">
-        <v>1.067799196899214</v>
+        <v>1.026022603023176</v>
       </c>
       <c r="E10">
-        <v>1.071594231933962</v>
+        <v>1.019885044107728</v>
       </c>
       <c r="F10">
-        <v>1.080246429856688</v>
+        <v>1.03068144981219</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051341938204248</v>
+        <v>1.052639876132091</v>
       </c>
       <c r="J10">
-        <v>1.073705290956814</v>
+        <v>1.032136189276348</v>
       </c>
       <c r="K10">
-        <v>1.071134899762848</v>
+        <v>1.039937386669527</v>
       </c>
       <c r="L10">
-        <v>1.074917297792348</v>
+        <v>1.033904315735134</v>
       </c>
       <c r="M10">
-        <v>1.083541048881349</v>
+        <v>1.044517990096826</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066573037837228</v>
+        <v>0.9981897654192355</v>
       </c>
       <c r="D11">
-        <v>1.067023400473676</v>
+        <v>1.021528485716221</v>
       </c>
       <c r="E11">
-        <v>1.070716552022095</v>
+        <v>1.014942238268438</v>
       </c>
       <c r="F11">
-        <v>1.079369317412503</v>
+        <v>1.025719963304243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051059250038795</v>
+        <v>1.05052719261542</v>
       </c>
       <c r="J11">
-        <v>1.072922329509029</v>
+        <v>1.027638046657708</v>
       </c>
       <c r="K11">
-        <v>1.070479180912981</v>
+        <v>1.036055514406437</v>
       </c>
       <c r="L11">
-        <v>1.074159553250237</v>
+        <v>1.029587762082165</v>
       </c>
       <c r="M11">
-        <v>1.082782754423863</v>
+        <v>1.040172609357703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066197405645003</v>
+        <v>0.9959588724098292</v>
       </c>
       <c r="D12">
-        <v>1.066734997278332</v>
+        <v>1.019828678511986</v>
       </c>
       <c r="E12">
-        <v>1.070390359985739</v>
+        <v>1.013073126928963</v>
       </c>
       <c r="F12">
-        <v>1.079043328669163</v>
+        <v>1.023843835980017</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050953850385978</v>
+        <v>1.049725225035269</v>
       </c>
       <c r="J12">
-        <v>1.072631197638986</v>
+        <v>1.025935250205562</v>
       </c>
       <c r="K12">
-        <v>1.07023527457366</v>
+        <v>1.034585603126974</v>
       </c>
       <c r="L12">
-        <v>1.07387781155888</v>
+        <v>1.027954080354916</v>
       </c>
       <c r="M12">
-        <v>1.082500800316375</v>
+        <v>1.038528052085153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066277990760313</v>
+        <v>0.9964393536574914</v>
       </c>
       <c r="D13">
-        <v>1.066796871586974</v>
+        <v>1.020194716277945</v>
       </c>
       <c r="E13">
-        <v>1.070460337643628</v>
+        <v>1.013475605335732</v>
       </c>
       <c r="F13">
-        <v>1.079113263056424</v>
+        <v>1.024247822652985</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050976476958252</v>
+        <v>1.049898051472985</v>
       </c>
       <c r="J13">
-        <v>1.072693660313447</v>
+        <v>1.026301999282688</v>
       </c>
       <c r="K13">
-        <v>1.070287608916302</v>
+        <v>1.034902210940273</v>
       </c>
       <c r="L13">
-        <v>1.07393825893949</v>
+        <v>1.028305926174873</v>
       </c>
       <c r="M13">
-        <v>1.082561293627749</v>
+        <v>1.038882238322936</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066541992791012</v>
+        <v>0.998006230987301</v>
       </c>
       <c r="D14">
-        <v>1.066999565856873</v>
+        <v>1.021388616702259</v>
       </c>
       <c r="E14">
-        <v>1.070689592646249</v>
+        <v>1.01478843011979</v>
       </c>
       <c r="F14">
-        <v>1.079342374992804</v>
+        <v>1.025565576722741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051050545776585</v>
+        <v>1.050461261034303</v>
       </c>
       <c r="J14">
-        <v>1.07289827071562</v>
+        <v>1.027497961921563</v>
       </c>
       <c r="K14">
-        <v>1.070459026566696</v>
+        <v>1.035934596539805</v>
       </c>
       <c r="L14">
-        <v>1.074136270170666</v>
+        <v>1.029453355509722</v>
       </c>
       <c r="M14">
-        <v>1.08275945395145</v>
+        <v>1.040037307226864</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066704621854236</v>
+        <v>0.9989660028126757</v>
       </c>
       <c r="D15">
-        <v>1.067124420817523</v>
+        <v>1.022120097689821</v>
       </c>
       <c r="E15">
-        <v>1.070830819843289</v>
+        <v>1.015592825510055</v>
       </c>
       <c r="F15">
-        <v>1.07948351305423</v>
+        <v>1.026372999309262</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051096129384712</v>
+        <v>1.050805949858248</v>
       </c>
       <c r="J15">
-        <v>1.073024297333009</v>
+        <v>1.028230510949798</v>
       </c>
       <c r="K15">
-        <v>1.070564597024593</v>
+        <v>1.036566899432905</v>
       </c>
       <c r="L15">
-        <v>1.074258233944569</v>
+        <v>1.030156226888423</v>
       </c>
       <c r="M15">
-        <v>1.082881508509844</v>
+        <v>1.040744863386136</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067650721225467</v>
+        <v>1.004469188476767</v>
       </c>
       <c r="D16">
-        <v>1.067850650871159</v>
+        <v>1.026316730680907</v>
       </c>
       <c r="E16">
-        <v>1.071652455367563</v>
+        <v>1.020208595229753</v>
       </c>
       <c r="F16">
-        <v>1.080304614570398</v>
+        <v>1.031006229312701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051360643788427</v>
+        <v>1.052777746466868</v>
       </c>
       <c r="J16">
-        <v>1.073757211055134</v>
+        <v>1.032430382768908</v>
       </c>
       <c r="K16">
-        <v>1.071178369799199</v>
+        <v>1.040191215527348</v>
       </c>
       <c r="L16">
-        <v>1.074967547604568</v>
+        <v>1.034186682637895</v>
       </c>
       <c r="M16">
-        <v>1.083591334038891</v>
+        <v>1.044802246556161</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068243774941521</v>
+        <v>1.007851006814597</v>
       </c>
       <c r="D17">
-        <v>1.068305777306999</v>
+        <v>1.028897610725736</v>
       </c>
       <c r="E17">
-        <v>1.072167526444862</v>
+        <v>1.023047988454984</v>
       </c>
       <c r="F17">
-        <v>1.080819337162911</v>
+        <v>1.033856426393666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051525862349306</v>
+        <v>1.053985335260045</v>
       </c>
       <c r="J17">
-        <v>1.074216410905511</v>
+        <v>1.035010790092192</v>
       </c>
       <c r="K17">
-        <v>1.071562766806245</v>
+        <v>1.042417246331171</v>
       </c>
       <c r="L17">
-        <v>1.075411985274198</v>
+        <v>1.036663620968074</v>
       </c>
       <c r="M17">
-        <v>1.084036078116317</v>
+        <v>1.047295775515146</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068589548090895</v>
+        <v>1.009799402150934</v>
       </c>
       <c r="D18">
-        <v>1.068571095644893</v>
+        <v>1.030385198834857</v>
       </c>
       <c r="E18">
-        <v>1.072467845537891</v>
+        <v>1.024684863482952</v>
       </c>
       <c r="F18">
-        <v>1.081119448069274</v>
+        <v>1.035499546599526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051621978471062</v>
+        <v>1.05467955597847</v>
       </c>
       <c r="J18">
-        <v>1.074484062522349</v>
+        <v>1.036497244068537</v>
       </c>
       <c r="K18">
-        <v>1.071786762041964</v>
+        <v>1.043699275824401</v>
       </c>
       <c r="L18">
-        <v>1.075671041215486</v>
+        <v>1.03809068641654</v>
       </c>
       <c r="M18">
-        <v>1.084295307448207</v>
+        <v>1.04873240958538</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068707423430479</v>
+        <v>1.010459758275234</v>
       </c>
       <c r="D19">
-        <v>1.068661537182834</v>
+        <v>1.030889480324251</v>
       </c>
       <c r="E19">
-        <v>1.072570227570577</v>
+        <v>1.025239801398496</v>
       </c>
       <c r="F19">
-        <v>1.081221758276154</v>
+        <v>1.036056604107646</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051654708731043</v>
+        <v>1.054914582747563</v>
       </c>
       <c r="J19">
-        <v>1.07457529243209</v>
+        <v>1.037000997195031</v>
       </c>
       <c r="K19">
-        <v>1.07186310195772</v>
+        <v>1.044133700882724</v>
       </c>
       <c r="L19">
-        <v>1.075759342731633</v>
+        <v>1.038574348796774</v>
       </c>
       <c r="M19">
-        <v>1.084383667177568</v>
+        <v>1.04921931621676</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068180160949973</v>
+        <v>1.007490693463919</v>
       </c>
       <c r="D20">
-        <v>1.068256962017677</v>
+        <v>1.028622564448013</v>
       </c>
       <c r="E20">
-        <v>1.072112275939056</v>
+        <v>1.022745363126916</v>
       </c>
       <c r="F20">
-        <v>1.080764124554131</v>
+        <v>1.033552647697274</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051508162154744</v>
+        <v>1.053856830530038</v>
       </c>
       <c r="J20">
-        <v>1.074167162996764</v>
+        <v>1.034735884273715</v>
       </c>
       <c r="K20">
-        <v>1.071521547128487</v>
+        <v>1.04218012358294</v>
       </c>
       <c r="L20">
-        <v>1.075364319668844</v>
+        <v>1.036399715762865</v>
       </c>
       <c r="M20">
-        <v>1.083988380186829</v>
+        <v>1.047030101502478</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066464257307851</v>
+        <v>0.9975460053311942</v>
       </c>
       <c r="D21">
-        <v>1.066939884052796</v>
+        <v>1.021037906135772</v>
       </c>
       <c r="E21">
-        <v>1.070622087850739</v>
+        <v>1.01440277459244</v>
       </c>
       <c r="F21">
-        <v>1.079274912532233</v>
+        <v>1.025178471685458</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051028745325196</v>
+        <v>1.050295896369728</v>
       </c>
       <c r="J21">
-        <v>1.072838026521174</v>
+        <v>1.027146686567288</v>
       </c>
       <c r="K21">
-        <v>1.07040855785213</v>
+        <v>1.035631377476488</v>
       </c>
       <c r="L21">
-        <v>1.074077968616285</v>
+        <v>1.029116324768407</v>
       </c>
       <c r="M21">
-        <v>1.082701108717021</v>
+        <v>1.039698031447267</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065384040209875</v>
+        <v>0.9910503407918981</v>
       </c>
       <c r="D22">
-        <v>1.066110406174395</v>
+        <v>1.016091236082226</v>
       </c>
       <c r="E22">
-        <v>1.069684087848483</v>
+        <v>1.008964118557292</v>
       </c>
       <c r="F22">
-        <v>1.07833748296549</v>
+        <v>1.019719515335497</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050725020671367</v>
+        <v>1.047956592708409</v>
       </c>
       <c r="J22">
-        <v>1.072000577428419</v>
+        <v>1.02218843191686</v>
       </c>
       <c r="K22">
-        <v>1.069706789526602</v>
+        <v>1.031350523093886</v>
       </c>
       <c r="L22">
-        <v>1.073267556530596</v>
+        <v>1.024360061851717</v>
       </c>
       <c r="M22">
-        <v>1.081890070823553</v>
+        <v>1.034910191726314</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065956815287211</v>
+        <v>0.9945181824316157</v>
       </c>
       <c r="D23">
-        <v>1.066550260451004</v>
+        <v>1.018731340685016</v>
       </c>
       <c r="E23">
-        <v>1.070181441791567</v>
+        <v>1.011866599825274</v>
       </c>
       <c r="F23">
-        <v>1.07883453855788</v>
+        <v>1.022632796102832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050886249312861</v>
+        <v>1.049206689638807</v>
       </c>
       <c r="J23">
-        <v>1.072444694568655</v>
+        <v>1.02483555818394</v>
       </c>
       <c r="K23">
-        <v>1.070079000196046</v>
+        <v>1.03363620281814</v>
       </c>
       <c r="L23">
-        <v>1.073697327828437</v>
+        <v>1.026899132441388</v>
       </c>
       <c r="M23">
-        <v>1.082320178294045</v>
+        <v>1.037466093289473</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068208905823033</v>
+        <v>1.007653577958979</v>
       </c>
       <c r="D24">
-        <v>1.06827902000708</v>
+        <v>1.028746900830565</v>
       </c>
       <c r="E24">
-        <v>1.072137241614375</v>
+        <v>1.022882165908592</v>
       </c>
       <c r="F24">
-        <v>1.080789073120635</v>
+        <v>1.033689971811869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051516160892884</v>
+        <v>1.053914927543592</v>
       </c>
       <c r="J24">
-        <v>1.074189416600089</v>
+        <v>1.03486015983093</v>
       </c>
       <c r="K24">
-        <v>1.071540173197483</v>
+        <v>1.042287319587853</v>
       </c>
       <c r="L24">
-        <v>1.075385858251474</v>
+        <v>1.036519017650893</v>
       </c>
       <c r="M24">
-        <v>1.084009933391832</v>
+        <v>1.047150202973551</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070816668567941</v>
+        <v>1.021957818422119</v>
       </c>
       <c r="D25">
-        <v>1.070279313222121</v>
+        <v>1.039677741235567</v>
       </c>
       <c r="E25">
-        <v>1.07440241994096</v>
+        <v>1.034915334788473</v>
       </c>
       <c r="F25">
-        <v>1.083052589558078</v>
+        <v>1.045769189441269</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052237218986952</v>
+        <v>1.05898388162536</v>
       </c>
       <c r="J25">
-        <v>1.076206561943778</v>
+        <v>1.045768155934488</v>
       </c>
       <c r="K25">
-        <v>1.073227285605251</v>
+        <v>1.051689824280614</v>
       </c>
       <c r="L25">
-        <v>1.07733837793349</v>
+        <v>1.046994778104025</v>
       </c>
       <c r="M25">
-        <v>1.085963664588903</v>
+        <v>1.057696241955094</v>
       </c>
     </row>
   </sheetData>
